--- a/OpaProject/excel/test.xlsx
+++ b/OpaProject/excel/test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\308\Desktop\OP_Admin\OpaProject\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBAF999-8C49-4226-8C24-A9E2174472DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{AA3CAD4F-D2BF-45C6-A76F-903332CFEF9D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,15 +87,12 @@
   </si>
   <si>
     <t>01012345679</t>
-  </si>
-  <si>
-    <t>01012345680</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F735C10-A887-4FBD-85DD-8939F3EF4F34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,9 +559,6 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -578,16 +571,14 @@
       <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C20A11DE-FD1A-4389-AB3D-9FDDF227C559}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{AB3D4440-9A78-4F2E-8A0D-DDE02EC8A8A9}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{E6DB1B48-93FF-4A70-A9DC-8D1A4BCA6B87}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>

--- a/OpaProject/excel/test.xlsx
+++ b/OpaProject/excel/test.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,22 @@
   </si>
   <si>
     <t>01012345679</t>
+  </si>
+  <si>
+    <t>sdh190303@sdh.hs.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르는놈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍철수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdh190304@sdh.hs.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -469,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -573,14 +589,50 @@
       </c>
       <c r="G4" s="2"/>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>